--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_investments_asset_management.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.2535</v>
+        <v>-0.10595</v>
       </c>
       <c r="E2">
-        <v>-0.229</v>
+        <v>-0.1684</v>
       </c>
       <c r="G2">
-        <v>0.1015031244722175</v>
+        <v>0.2950701852891634</v>
       </c>
       <c r="H2">
-        <v>0.1015031244722175</v>
+        <v>0.2950701852891634</v>
       </c>
       <c r="I2">
-        <v>0.3031171289057293</v>
+        <v>0.4995171252105559</v>
       </c>
       <c r="J2">
-        <v>0.2654117314586475</v>
+        <v>0.4499697308988136</v>
       </c>
       <c r="K2">
-        <v>2.905</v>
+        <v>11.404</v>
       </c>
       <c r="L2">
-        <v>0.08177109722456793</v>
+        <v>0.2561257720381808</v>
       </c>
       <c r="M2">
-        <v>4.344</v>
+        <v>4.314</v>
       </c>
       <c r="N2">
-        <v>0.0188117096830071</v>
+        <v>0.01542311679954238</v>
       </c>
       <c r="O2">
-        <v>1.495352839931153</v>
+        <v>0.3782883198877587</v>
       </c>
       <c r="P2">
-        <v>4.344</v>
+        <v>4.29</v>
       </c>
       <c r="Q2">
-        <v>0.0188117096830071</v>
+        <v>0.0153373136462765</v>
       </c>
       <c r="R2">
-        <v>1.495352839931153</v>
+        <v>0.3761837951595931</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.005563282336578586</v>
       </c>
       <c r="U2">
-        <v>3.783</v>
+        <v>19.814</v>
       </c>
       <c r="V2">
-        <v>0.01638229689935908</v>
+        <v>0.07083765328375818</v>
       </c>
       <c r="W2">
-        <v>0.001449429452813801</v>
+        <v>0.01069968561431976</v>
       </c>
       <c r="X2">
-        <v>0.07775196013035843</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="Y2">
-        <v>-0.07630253067754462</v>
+        <v>-0.06445722843546718</v>
       </c>
       <c r="Z2">
-        <v>0.06630034641077916</v>
+        <v>0.08317874509847878</v>
       </c>
       <c r="AA2">
-        <v>0.01169844392806775</v>
+        <v>0.006847097013649604</v>
       </c>
       <c r="AB2">
-        <v>0.07766717946951444</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="AC2">
-        <v>-0.07206665464792121</v>
+        <v>-0.06830981703613734</v>
       </c>
       <c r="AD2">
-        <v>225.826</v>
+        <v>163.25</v>
       </c>
       <c r="AE2">
-        <v>0.06730439247530652</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>225.8933043924753</v>
+        <v>163.25</v>
       </c>
       <c r="AG2">
-        <v>222.1103043924753</v>
+        <v>143.436</v>
       </c>
       <c r="AH2">
-        <v>0.4944980853674897</v>
+        <v>0.3685434350731443</v>
       </c>
       <c r="AI2">
-        <v>0.3986516784746376</v>
+        <v>0.305026158445441</v>
       </c>
       <c r="AJ2">
-        <v>0.4902769246095593</v>
+        <v>0.3389752000491557</v>
       </c>
       <c r="AK2">
-        <v>0.3946099994246541</v>
+        <v>0.278307909023528</v>
       </c>
       <c r="AL2">
-        <v>1.425</v>
+        <v>2.114</v>
       </c>
       <c r="AM2">
-        <v>1.382</v>
+        <v>2.104</v>
       </c>
       <c r="AN2">
-        <v>23.33636457579829</v>
+        <v>7.685969868173257</v>
       </c>
       <c r="AO2">
-        <v>7.547368421052632</v>
+        <v>10.52081362346263</v>
       </c>
       <c r="AP2">
-        <v>22.9523927242405</v>
+        <v>6.753107344632768</v>
       </c>
       <c r="AQ2">
-        <v>7.7821997105644</v>
+        <v>10.5708174904943</v>
       </c>
     </row>
     <row r="3">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.133</v>
+        <v>-0.0435</v>
       </c>
       <c r="E3">
-        <v>-0.163</v>
+        <v>-0.0488</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,67 +737,64 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.92512077294686</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="J3">
-        <v>0.7584541062801933</v>
+        <v>0.7733333333333334</v>
       </c>
       <c r="K3">
-        <v>0.315</v>
+        <v>0.231</v>
       </c>
       <c r="L3">
-        <v>0.7608695652173914</v>
+        <v>0.77</v>
       </c>
       <c r="M3">
-        <v>0.056</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.01311475409836066</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.1777777777777778</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>0.056</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.01311475409836066</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.1777777777777778</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>0.029</v>
+        <v>2.31</v>
       </c>
       <c r="V3">
-        <v>0.006791569086651055</v>
+        <v>0.4753086419753086</v>
       </c>
       <c r="W3">
-        <v>0.07855361596009976</v>
+        <v>0.05804020100502513</v>
       </c>
       <c r="X3">
-        <v>0.07757387035638978</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="Y3">
-        <v>0.000979745603709975</v>
+        <v>-0.01711671304476182</v>
       </c>
       <c r="Z3">
-        <v>0.1041771514846502</v>
+        <v>0.07593014426727411</v>
       </c>
       <c r="AA3">
-        <v>0.0790135883241067</v>
+        <v>0.05871931156669198</v>
       </c>
       <c r="AB3">
-        <v>0.07757387035638978</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="AC3">
-        <v>0.001439717967716914</v>
+        <v>-0.01643760248309496</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -809,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.029</v>
+        <v>-2.31</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -818,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.006838009903324688</v>
+        <v>-0.9058823529411764</v>
       </c>
       <c r="AK3">
-        <v>-0.007339913945836498</v>
+        <v>-1.248648648648649</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -838,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lanka Ventures PLC (COSE:LVEN.N0000)</t>
+          <t>Ceylon Guardian Investment Trust PLC (COSE:GUAR.N0000)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,121 +844,118 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.113</v>
-      </c>
-      <c r="E4">
-        <v>0.0534</v>
+        <v>-0.116</v>
       </c>
       <c r="G4">
-        <v>0.8844221105527639</v>
+        <v>0.5548523206751055</v>
       </c>
       <c r="H4">
-        <v>0.8844221105527639</v>
+        <v>0.5548523206751055</v>
       </c>
       <c r="I4">
-        <v>0.5093161414597681</v>
+        <v>0.751054852320675</v>
       </c>
       <c r="J4">
-        <v>0.4086327961210031</v>
+        <v>0.751054852320675</v>
       </c>
       <c r="K4">
-        <v>1.03</v>
+        <v>-0.628</v>
       </c>
       <c r="L4">
-        <v>0.5175879396984925</v>
+        <v>-0.1324894514767933</v>
       </c>
       <c r="M4">
-        <v>0.755</v>
+        <v>0.517</v>
       </c>
       <c r="N4">
-        <v>0.06863636363636363</v>
+        <v>0.008503289473684211</v>
       </c>
       <c r="O4">
-        <v>0.7330097087378641</v>
+        <v>-0.8232484076433121</v>
       </c>
       <c r="P4">
-        <v>0.755</v>
+        <v>0.493</v>
       </c>
       <c r="Q4">
-        <v>0.06863636363636363</v>
+        <v>0.008108552631578947</v>
       </c>
       <c r="R4">
-        <v>0.7330097087378641</v>
+        <v>-0.785031847133758</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.04642166344294008</v>
       </c>
       <c r="U4">
-        <v>2.3</v>
+        <v>11.3</v>
       </c>
       <c r="V4">
-        <v>0.2090909090909091</v>
+        <v>0.1858552631578947</v>
       </c>
       <c r="W4">
-        <v>0.07518248175182482</v>
+        <v>-0.008061617458279845</v>
       </c>
       <c r="X4">
-        <v>0.13132272145335</v>
+        <v>0.07961005459323241</v>
       </c>
       <c r="Y4">
-        <v>-0.05614023970152521</v>
+        <v>-0.08767167205151224</v>
       </c>
       <c r="Z4">
-        <v>0.1344839537809299</v>
+        <v>0.06014465169394746</v>
       </c>
       <c r="AA4">
-        <v>0.05495455406690913</v>
+        <v>0.04517193249587615</v>
       </c>
       <c r="AB4">
-        <v>0.09157173670811683</v>
+        <v>0.07872378709467134</v>
       </c>
       <c r="AC4">
-        <v>-0.0366171826412077</v>
+        <v>-0.03355185459879519</v>
       </c>
       <c r="AD4">
-        <v>14</v>
+        <v>5.71</v>
       </c>
       <c r="AE4">
-        <v>0.06730439247530652</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>14.06730439247531</v>
+        <v>5.71</v>
       </c>
       <c r="AG4">
-        <v>11.76730439247531</v>
+        <v>-5.590000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.5611813768335627</v>
+        <v>0.08585175161629831</v>
       </c>
       <c r="AI4">
-        <v>0.3685695025202954</v>
+        <v>0.04730345456051694</v>
       </c>
       <c r="AJ4">
-        <v>0.5168510153694107</v>
+        <v>-0.1012497735917407</v>
       </c>
       <c r="AK4">
-        <v>0.3280788615646288</v>
+        <v>-0.05109222191755782</v>
       </c>
       <c r="AL4">
-        <v>1.27</v>
+        <v>0.364</v>
       </c>
       <c r="AM4">
-        <v>1.27</v>
+        <v>0.364</v>
       </c>
       <c r="AN4">
-        <v>11.04972375690608</v>
+        <v>1.599439775910364</v>
       </c>
       <c r="AO4">
-        <v>0.7874015748031495</v>
+        <v>9.780219780219781</v>
       </c>
       <c r="AP4">
-        <v>9.287533064305689</v>
+        <v>-1.565826330532213</v>
       </c>
       <c r="AQ4">
-        <v>0.7874015748031495</v>
+        <v>9.780219780219781</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ceylon Guardian Investment Trust PLC (COSE:GUAR.N0000)</t>
+          <t>Lanka Ventures PLC (COSE:LVEN.N0000)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -981,43 +975,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.263</v>
+        <v>0.0486</v>
+      </c>
+      <c r="E5">
+        <v>0.0867</v>
       </c>
       <c r="G5">
-        <v>0.5263157894736842</v>
+        <v>0.64</v>
       </c>
       <c r="H5">
-        <v>0.5263157894736842</v>
+        <v>0.64</v>
       </c>
       <c r="I5">
-        <v>0.519298245614035</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="J5">
-        <v>0.519298245614035</v>
+        <v>0.5353374999999999</v>
       </c>
       <c r="K5">
-        <v>-2.27</v>
+        <v>1.42</v>
       </c>
       <c r="L5">
-        <v>-0.7964912280701755</v>
+        <v>0.71</v>
       </c>
       <c r="M5">
-        <v>0.919</v>
+        <v>0.743</v>
       </c>
       <c r="N5">
-        <v>0.02055928411633109</v>
+        <v>0.05054421768707483</v>
       </c>
       <c r="O5">
-        <v>-0.4048458149779736</v>
+        <v>0.5232394366197183</v>
       </c>
       <c r="P5">
-        <v>0.919</v>
+        <v>0.743</v>
       </c>
       <c r="Q5">
-        <v>0.02055928411633109</v>
+        <v>0.05054421768707483</v>
       </c>
       <c r="R5">
-        <v>-0.4048458149779736</v>
+        <v>0.5232394366197183</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1026,73 +1023,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.57</v>
+        <v>2.06</v>
       </c>
       <c r="V5">
-        <v>0.01275167785234899</v>
+        <v>0.1401360544217687</v>
       </c>
       <c r="W5">
-        <v>-0.02738238841978287</v>
+        <v>0.1059701492537313</v>
       </c>
       <c r="X5">
-        <v>0.0789654407423354</v>
+        <v>0.125799536935419</v>
       </c>
       <c r="Y5">
-        <v>-0.1063478291621183</v>
+        <v>-0.01982938768168767</v>
       </c>
       <c r="Z5">
-        <v>0.03444525018129078</v>
+        <v>0.07968127490039842</v>
       </c>
       <c r="AA5">
-        <v>0.01788735798888083</v>
+        <v>0.04265637450199203</v>
       </c>
       <c r="AB5">
-        <v>0.07814714021362298</v>
+        <v>0.09661369463774208</v>
       </c>
       <c r="AC5">
-        <v>-0.06025978222474215</v>
+        <v>-0.05395732013575005</v>
       </c>
       <c r="AD5">
-        <v>1.48</v>
+        <v>15.7</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.48</v>
+        <v>15.7</v>
       </c>
       <c r="AG5">
-        <v>0.91</v>
+        <v>13.64</v>
       </c>
       <c r="AH5">
-        <v>0.03204850584668688</v>
+        <v>0.5164473684210527</v>
       </c>
       <c r="AI5">
-        <v>0.01556583929322676</v>
+        <v>0.3694117647058823</v>
       </c>
       <c r="AJ5">
-        <v>0.01995176496382372</v>
+        <v>0.4812985179957657</v>
       </c>
       <c r="AK5">
-        <v>0.009628610729023384</v>
+        <v>0.3372898120672601</v>
       </c>
       <c r="AL5">
-        <v>0.061</v>
+        <v>1.62</v>
       </c>
       <c r="AM5">
-        <v>0.061</v>
+        <v>1.62</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>11.45985401459854</v>
       </c>
       <c r="AO5">
-        <v>24.26229508196721</v>
+        <v>0.6975308641975307</v>
       </c>
       <c r="AP5">
-        <v>0.6148648648648649</v>
+        <v>9.956204379562042</v>
       </c>
       <c r="AQ5">
-        <v>24.26229508196721</v>
+        <v>0.6975308641975307</v>
       </c>
     </row>
     <row r="6">
@@ -1112,7 +1109,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.244</v>
+        <v>-0.0959</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1121,34 +1118,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6677966101694915</v>
+        <v>0.7401515151515151</v>
       </c>
       <c r="J6">
-        <v>0.6677966101694915</v>
+        <v>0.7401515151515151</v>
       </c>
       <c r="K6">
-        <v>-1.04</v>
+        <v>-0.542</v>
       </c>
       <c r="L6">
-        <v>-0.8813559322033899</v>
+        <v>-0.4106060606060606</v>
       </c>
       <c r="M6">
-        <v>0.266</v>
+        <v>0.026</v>
       </c>
       <c r="N6">
-        <v>0.009432624113475178</v>
+        <v>0.0006419753086419753</v>
       </c>
       <c r="O6">
-        <v>-0.2557692307692307</v>
+        <v>-0.04797047970479704</v>
       </c>
       <c r="P6">
-        <v>0.266</v>
+        <v>0.026</v>
       </c>
       <c r="Q6">
-        <v>0.009432624113475178</v>
+        <v>0.0006419753086419753</v>
       </c>
       <c r="R6">
-        <v>-0.2557692307692307</v>
+        <v>-0.04797047970479704</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1157,67 +1154,67 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.378</v>
+        <v>3.35</v>
       </c>
       <c r="V6">
-        <v>0.01340425531914894</v>
+        <v>0.08271604938271605</v>
       </c>
       <c r="W6">
-        <v>-0.02255965292841649</v>
+        <v>-0.01243119266055046</v>
       </c>
       <c r="X6">
-        <v>0.078018008569995</v>
+        <v>0.07731116688270442</v>
       </c>
       <c r="Y6">
-        <v>-0.1005776614984115</v>
+        <v>-0.08974235954325488</v>
       </c>
       <c r="Z6">
-        <v>0.0252417215709763</v>
+        <v>0.03033088235294118</v>
       </c>
       <c r="AA6">
-        <v>0.0168563360999401</v>
+        <v>0.02244944852941176</v>
       </c>
       <c r="AB6">
-        <v>0.07780609211017085</v>
+        <v>0.07683165681184939</v>
       </c>
       <c r="AC6">
-        <v>-0.06094975601023075</v>
+        <v>-0.05438220828243763</v>
       </c>
       <c r="AD6">
-        <v>0.298</v>
+        <v>1.84</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.298</v>
+        <v>1.84</v>
       </c>
       <c r="AG6">
-        <v>-0.08000000000000002</v>
+        <v>-1.51</v>
       </c>
       <c r="AH6">
-        <v>0.01045687416660818</v>
+        <v>0.04345772319319792</v>
       </c>
       <c r="AI6">
-        <v>0.006788464166932433</v>
+        <v>0.0326588569400071</v>
       </c>
       <c r="AJ6">
-        <v>-0.002844950213371267</v>
+        <v>-0.0387278789433188</v>
       </c>
       <c r="AK6">
-        <v>-0.001838235294117647</v>
+        <v>-0.02849594263068504</v>
       </c>
       <c r="AL6">
-        <v>0.049</v>
+        <v>0.098</v>
       </c>
       <c r="AM6">
-        <v>0.049</v>
+        <v>0.098</v>
       </c>
       <c r="AO6">
-        <v>16.08163265306122</v>
+        <v>9.969387755102041</v>
       </c>
       <c r="AQ6">
-        <v>16.08163265306122</v>
+        <v>9.969387755102041</v>
       </c>
     </row>
     <row r="7">
@@ -1228,7 +1225,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Colombo Fort Investments PLC (COSE:CFI.N0000)</t>
+          <t>First Capital Holdings PLC (COSE:CFVF.N0000)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1237,112 +1234,115 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0438</v>
+        <v>0.398</v>
       </c>
       <c r="E7">
-        <v>-0.229</v>
+        <v>0.703</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.2554317548746518</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2554317548746518</v>
       </c>
       <c r="I7">
-        <v>0.8099999999999999</v>
+        <v>0.4512534818941504</v>
       </c>
       <c r="J7">
-        <v>0.7486363636363635</v>
+        <v>0.3034679665738161</v>
       </c>
       <c r="K7">
-        <v>0.06</v>
+        <v>10.2</v>
       </c>
       <c r="L7">
-        <v>0.6</v>
+        <v>0.2841225626740947</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>2.74</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.08782051282051283</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.2686274509803922</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>2.74</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.08782051282051283</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0.2686274509803922</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.463</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.01483974358974359</v>
       </c>
       <c r="W7">
-        <v>0.0106951871657754</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="X7">
-        <v>0.07793004990432707</v>
+        <v>0.2879254055952525</v>
       </c>
       <c r="Y7">
-        <v>-0.06723486273855167</v>
+        <v>0.1778280190622817</v>
       </c>
       <c r="Z7">
-        <v>0.01768346595932803</v>
+        <v>0.1550026121610127</v>
       </c>
       <c r="AA7">
-        <v>0.01323848565227876</v>
+        <v>0.0470383275261324</v>
       </c>
       <c r="AB7">
-        <v>0.07776048858263911</v>
+        <v>0.1066710508221905</v>
       </c>
       <c r="AC7">
-        <v>-0.06452200293036035</v>
+        <v>-0.05963272329605806</v>
       </c>
       <c r="AD7">
-        <v>0.02</v>
+        <v>140</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.02</v>
+        <v>140</v>
       </c>
       <c r="AG7">
-        <v>0.02</v>
+        <v>139.537</v>
       </c>
       <c r="AH7">
-        <v>0.008403361344537816</v>
+        <v>0.8177570093457944</v>
       </c>
       <c r="AI7">
-        <v>0.003944773175542407</v>
+        <v>0.835820895522388</v>
       </c>
       <c r="AJ7">
-        <v>0.008403361344537816</v>
+        <v>0.817262807710104</v>
       </c>
       <c r="AK7">
-        <v>0.003944773175542407</v>
+        <v>0.8353658171542832</v>
       </c>
       <c r="AL7">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>0.021</v>
-      </c>
-      <c r="AO7">
-        <v>3.857142857142857</v>
-      </c>
-      <c r="AQ7">
-        <v>3.857142857142857</v>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>8.588957055214724</v>
+      </c>
+      <c r="AP7">
+        <v>8.560552147239264</v>
       </c>
     </row>
     <row r="8">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Colombo Investment Trust PLC (COSE:CIT.N0000)</t>
+          <t>Colombo Fort Investments PLC (COSE:CFI.N0000)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.243</v>
+        <v>-0.142</v>
       </c>
       <c r="E8">
-        <v>-0.0462</v>
+        <v>0.323</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1374,16 +1374,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6082474226804123</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="J8">
-        <v>0.6082474226804123</v>
+        <v>0.616089207487057</v>
       </c>
       <c r="K8">
-        <v>0.297</v>
+        <v>0.238</v>
       </c>
       <c r="L8">
-        <v>3.061855670103093</v>
+        <v>3.838709677419355</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1410,64 +1410,64 @@
         <v>0.001</v>
       </c>
       <c r="V8">
-        <v>0.0003278688524590164</v>
+        <v>0.0003891050583657588</v>
       </c>
       <c r="W8">
-        <v>0.05147313691507799</v>
+        <v>0.04712871287128713</v>
       </c>
       <c r="X8">
-        <v>0.07795971206995858</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="Y8">
-        <v>-0.02648657515488059</v>
+        <v>-0.02802820117849981</v>
       </c>
       <c r="Z8">
-        <v>0.01670110192837466</v>
+        <v>0.01222879684418146</v>
       </c>
       <c r="AA8">
-        <v>0.01015840220385675</v>
+        <v>0.00753402975625198</v>
       </c>
       <c r="AB8">
-        <v>0.07777588852723537</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="AC8">
-        <v>-0.06761748632337862</v>
+        <v>-0.06762288429353497</v>
       </c>
       <c r="AD8">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.027</v>
+        <v>-0.001</v>
       </c>
       <c r="AH8">
-        <v>0.009096816114359975</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.005225830533781262</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.008774780630484237</v>
+        <v>-0.0003892565200467108</v>
       </c>
       <c r="AK8">
-        <v>0.005040134403584095</v>
+        <v>-0.0001980590215884334</v>
       </c>
       <c r="AL8">
-        <v>0.023</v>
+        <v>0.015</v>
       </c>
       <c r="AM8">
-        <v>-0.004</v>
+        <v>0.015</v>
       </c>
       <c r="AO8">
-        <v>2.565217391304348</v>
+        <v>2.6</v>
       </c>
       <c r="AQ8">
-        <v>-14.75</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Selinsing PLC (COSE:SELI.N0000)</t>
+          <t>Colombo Investment Trust PLC (COSE:CIT.N0000)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1486,12 +1486,6 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D9">
-        <v>-0.479</v>
-      </c>
-      <c r="E9">
-        <v>-0.434</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1499,16 +1493,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7611940298507461</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="J9">
-        <v>0.5980810234541577</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="K9">
-        <v>0.055</v>
+        <v>0.107</v>
       </c>
       <c r="L9">
-        <v>0.8208955223880596</v>
+        <v>1.320987654320988</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1532,31 +1526,31 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.05</v>
+        <v>0.002</v>
       </c>
       <c r="V9">
-        <v>0.002242152466367713</v>
+        <v>0.0006389776357827476</v>
       </c>
       <c r="W9">
-        <v>0.001424870466321244</v>
+        <v>0.02007504690431519</v>
       </c>
       <c r="X9">
-        <v>0.07757387035638978</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="Y9">
-        <v>-0.07614899989006854</v>
+        <v>-0.05508186714547175</v>
       </c>
       <c r="Z9">
-        <v>0.001769070313943971</v>
+        <v>0.01512040321075229</v>
       </c>
       <c r="AA9">
-        <v>0.001058047383925978</v>
+        <v>0.006160164271047229</v>
       </c>
       <c r="AB9">
-        <v>0.07757387035638978</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="AC9">
-        <v>-0.0765158229724638</v>
+        <v>-0.06899674977873971</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1568,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>-0.05</v>
+        <v>-0.002</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1577,16 +1571,22 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>-0.002247191011235955</v>
+        <v>-0.000639386189258312</v>
       </c>
       <c r="AK9">
-        <v>-0.0013531799729364</v>
+        <v>-0.0003818251240931653</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.008000000000000002</v>
+      </c>
+      <c r="AO9">
+        <v>1.941176470588235</v>
+      </c>
+      <c r="AQ9">
+        <v>4.124999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Renuka Capital PLC (COSE:KZOO.N0000)</t>
+          <t>Selinsing PLC (COSE:SELI.N0000)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1605,77 +1605,74 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D10">
-        <v>-0.345</v>
+      <c r="E10">
+        <v>-0.348</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="I10">
-        <v>0.3636363636363636</v>
+        <v>0.7118644067796611</v>
       </c>
       <c r="J10">
-        <v>0.1818181818181818</v>
+        <v>0.5813559322033899</v>
       </c>
       <c r="K10">
-        <v>-0.146</v>
+        <v>0.049</v>
       </c>
       <c r="L10">
-        <v>-3.318181818181818</v>
+        <v>0.8305084745762713</v>
       </c>
       <c r="M10">
-        <v>0.124</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.03502824858757062</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>-0.8493150684931507</v>
+        <v>-0</v>
       </c>
       <c r="P10">
-        <v>0.124</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.03502824858757062</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>-0.8493150684931507</v>
+        <v>-0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
-        <v>0.015</v>
+        <v>0.046</v>
       </c>
       <c r="V10">
-        <v>0.00423728813559322</v>
+        <v>0.001642857142857143</v>
       </c>
       <c r="W10">
-        <v>-0.01761158021712907</v>
+        <v>0.001324324324324324</v>
       </c>
       <c r="X10">
-        <v>0.07757387035638978</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="Y10">
-        <v>-0.09518545057351885</v>
+        <v>-0.07383258972546262</v>
       </c>
       <c r="Z10">
-        <v>0.005631639575067196</v>
+        <v>0.001596752368064952</v>
       </c>
       <c r="AA10">
-        <v>0.001023934468194036</v>
+        <v>0.0009282814614343708</v>
       </c>
       <c r="AB10">
-        <v>0.07757387035638978</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="AC10">
-        <v>-0.07654993588819575</v>
+        <v>-0.07422863258835258</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1687,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>-0.015</v>
+        <v>-0.046</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1696,22 +1693,16 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>-0.00425531914893617</v>
+        <v>-0.001645560563783358</v>
       </c>
       <c r="AK10">
-        <v>-0.002033898305084746</v>
+        <v>-0.001354774106143606</v>
       </c>
       <c r="AL10">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>-0.015</v>
-      </c>
-      <c r="AO10">
-        <v>16</v>
-      </c>
-      <c r="AQ10">
-        <v>-1.066666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1730,77 +1721,77 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D11">
-        <v>-0.456</v>
-      </c>
       <c r="E11">
-        <v>-0.353</v>
+        <v>-0.46</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.7199999999999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7199999999999999</v>
       </c>
       <c r="I11">
-        <v>0.6808510638297872</v>
+        <v>0.32</v>
       </c>
       <c r="J11">
-        <v>0.6808510638297872</v>
+        <v>0.288</v>
       </c>
       <c r="K11">
-        <v>0.051</v>
+        <v>0.018</v>
       </c>
       <c r="L11">
-        <v>1.085106382978723</v>
+        <v>0.7199999999999999</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>0.194</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.008290598290598292</v>
       </c>
       <c r="O11">
-        <v>-0</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>0.194</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.008290598290598292</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
-        <v>0.042</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="V11">
-        <v>0.002545454545454546</v>
+        <v>0.002948717948717949</v>
       </c>
       <c r="W11">
-        <v>0.001473988439306358</v>
+        <v>0.0005421686746987951</v>
       </c>
       <c r="X11">
-        <v>0.07757387035638978</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="Y11">
-        <v>-0.07609988191708342</v>
+        <v>-0.07461474537508815</v>
       </c>
       <c r="Z11">
-        <v>0.001379148449191584</v>
+        <v>0.0007539658604258399</v>
       </c>
       <c r="AA11">
-        <v>0.0009389946888112914</v>
+        <v>0.0002171421678026419</v>
       </c>
       <c r="AB11">
-        <v>0.07757387035638978</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="AC11">
-        <v>-0.07663487566757848</v>
+        <v>-0.07493977188198431</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1812,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>-0.042</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -1821,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>-0.002551950419248998</v>
+        <v>-0.002957438601002958</v>
       </c>
       <c r="AK11">
-        <v>-0.001266662645515411</v>
+        <v>-0.002216440204297967</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1850,16 +1841,16 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.5570000000000001</v>
+        <v>-0.427</v>
       </c>
       <c r="E12">
-        <v>-0.617</v>
+        <v>-0.5639999999999999</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="I12">
         <v>0.2380952380952381</v>
@@ -1895,31 +1886,31 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0.008999999999999999</v>
+        <v>0.018</v>
       </c>
       <c r="V12">
-        <v>0.0002017937219730942</v>
+        <v>0.0005157593123209169</v>
       </c>
       <c r="W12">
-        <v>0.0001506024096385542</v>
+        <v>0.0001567398119122257</v>
       </c>
       <c r="X12">
-        <v>0.07757387035638978</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="Y12">
-        <v>-0.07742326794675122</v>
+        <v>-0.07500017423787472</v>
       </c>
       <c r="Z12">
-        <v>0.0006369813152147537</v>
+        <v>0.0006584929917531593</v>
       </c>
       <c r="AA12">
-        <v>0.0001516622179082747</v>
+        <v>0.0001567840456555141</v>
       </c>
       <c r="AB12">
-        <v>0.07757387035638978</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="AC12">
-        <v>-0.07742220813848151</v>
+        <v>-0.07500013000413143</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1931,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>-0.008999999999999999</v>
+        <v>-0.018</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -1940,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>-0.0002018344508981633</v>
+        <v>-0.0005160254572558913</v>
       </c>
       <c r="AK12">
-        <v>-0.0002822112821799254</v>
+        <v>-0.0005944125222904696</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1969,79 +1960,76 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.5610000000000001</v>
+        <v>-0.471</v>
       </c>
       <c r="E13">
-        <v>-0.485</v>
+        <v>-0.288</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>-0.3846153846153846</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-0.3846153846153846</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="K13">
-        <v>0.018</v>
+        <v>0.037</v>
       </c>
       <c r="L13">
-        <v>1.125</v>
+        <v>2.846153846153846</v>
       </c>
       <c r="M13">
-        <v>0.004</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.0001433691756272401</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.2222222222222222</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>0.004</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.0001433691756272401</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.2222222222222222</v>
+        <v>-0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="V13">
-        <v>0.003512544802867384</v>
+        <v>0.003436426116838488</v>
       </c>
       <c r="W13">
-        <v>0.0005309734513274337</v>
+        <v>0.001134969325153374</v>
       </c>
       <c r="X13">
-        <v>0.07757387035638978</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="Y13">
-        <v>-0.07704289690506234</v>
+        <v>-0.07402194472463357</v>
       </c>
       <c r="Z13">
-        <v>0.0004758505829169641</v>
+        <v>0.0003999753861300842</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>-0.0001230693495784875</v>
       </c>
       <c r="AB13">
-        <v>0.07757387035638978</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="AC13">
-        <v>-0.07757387035638978</v>
+        <v>-0.07527998339936542</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2053,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>-0.098</v>
+        <v>-0.1</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -2062,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>-0.003524926264297533</v>
+        <v>-0.003448275862068966</v>
       </c>
       <c r="AK13">
-        <v>-0.003015199064672943</v>
+        <v>-0.003267973856209151</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2082,7 +2070,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>First Capital Holdings PLC (COSE:CFVF.N0000)</t>
+          <t>Renuka Capital PLC (COSE:KZOO.N0000)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2090,47 +2078,41 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D14">
-        <v>0.121</v>
-      </c>
-      <c r="E14">
-        <v>-0.047</v>
-      </c>
       <c r="G14">
-        <v>0.01205574912891986</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.01205574912891986</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2390243902439025</v>
+        <v>-4</v>
       </c>
       <c r="J14">
-        <v>0.1613838436256703</v>
+        <v>-2.498834498834499</v>
       </c>
       <c r="K14">
-        <v>4.53</v>
+        <v>0.269</v>
       </c>
       <c r="L14">
-        <v>0.1578397212543554</v>
+        <v>67.25</v>
       </c>
       <c r="M14">
-        <v>2.22</v>
+        <v>0.094</v>
       </c>
       <c r="N14">
-        <v>0.09866666666666668</v>
+        <v>0.01435114503816794</v>
       </c>
       <c r="O14">
-        <v>0.4900662251655629</v>
+        <v>0.3494423791821561</v>
       </c>
       <c r="P14">
-        <v>2.22</v>
+        <v>0.094</v>
       </c>
       <c r="Q14">
-        <v>0.09866666666666668</v>
+        <v>0.01435114503816794</v>
       </c>
       <c r="R14">
-        <v>0.4900662251655629</v>
+        <v>0.3494423791821561</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2139,67 +2121,64 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0.291</v>
+        <v>0.095</v>
       </c>
       <c r="V14">
-        <v>0.01293333333333333</v>
+        <v>0.01450381679389313</v>
       </c>
       <c r="W14">
-        <v>0.2106976744186047</v>
+        <v>0.03640054127198918</v>
       </c>
       <c r="X14">
-        <v>0.4698462791513291</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="Y14">
-        <v>-0.2591486047327244</v>
+        <v>-0.03875637277779777</v>
       </c>
       <c r="Z14">
-        <v>0.1249156710408914</v>
+        <v>0.0005423728813559322</v>
       </c>
       <c r="AA14">
-        <v>0.02015937112165889</v>
+        <v>-0.001355300067164474</v>
       </c>
       <c r="AB14">
-        <v>0.1001035455132515</v>
+        <v>0.07515691404978694</v>
       </c>
       <c r="AC14">
-        <v>-0.0799441743915926</v>
+        <v>-0.07651221411695142</v>
       </c>
       <c r="AD14">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>209.709</v>
+        <v>-0.095</v>
       </c>
       <c r="AH14">
-        <v>0.9032258064516129</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>0.9012875536480687</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0.9031045308321383</v>
+        <v>-0.01471727343144849</v>
       </c>
       <c r="AK14">
-        <v>0.9011641148387042</v>
+        <v>-0.01282916948008103</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>30.3030303030303</v>
-      </c>
-      <c r="AP14">
-        <v>30.26103896103896</v>
+        <v>-0.001</v>
+      </c>
+      <c r="AQ14">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
